--- a/senaryolar ve gorev dagilimi.xlsx
+++ b/senaryolar ve gorev dagilimi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>SENARYOLAR</t>
   </si>
@@ -508,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,6 +733,14 @@
         <v>27</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>3</v>
       </c>
     </row>

--- a/senaryolar ve gorev dagilimi.xlsx
+++ b/senaryolar ve gorev dagilimi.xlsx
@@ -30,9 +30,6 @@
     <t>Nursema GÜLMEZ</t>
   </si>
   <si>
-    <t>Create And Push Project İn Git</t>
-  </si>
-  <si>
     <t>Login Case Yapılması</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>Appium Araştırılması</t>
+  </si>
+  <si>
+    <t>GitHub'ta Proje Oluşturma ve Push Etme</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,10 +530,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -546,15 +546,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
@@ -562,111 +562,111 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>3</v>
@@ -674,63 +674,63 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>3</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>3</v>
